--- a/DMSNewVSale_2025-12-17_19-13.xlsx
+++ b/DMSNewVSale_2025-12-17_19-13.xlsx
@@ -107,6 +107,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -287,9 +305,6 @@
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>187.50</t>
   </si>
   <si>
@@ -401,6 +416,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -453,9 +477,6 @@
   </si>
   <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
   </si>
   <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
@@ -1448,7 +1469,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1465,7 +1486,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1481,7 +1502,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1491,14 +1512,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1507,14 +1528,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1524,14 +1545,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1547,21 +1568,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>15</v>
@@ -1573,20 +1594,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1613,7 +1634,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1623,11 +1644,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>15</v>
@@ -1639,31 +1660,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1672,20 +1693,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1712,7 +1733,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1729,7 +1750,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1745,7 +1766,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1755,11 +1776,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1804,14 +1825,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1821,11 +1842,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1844,7 +1865,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1870,14 +1891,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1887,7 +1908,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1910,7 +1931,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1943,7 +1964,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1953,14 +1974,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1969,14 +1990,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2002,14 +2023,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2023,10 +2044,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2035,14 +2056,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2075,7 +2096,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2089,10 +2110,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2101,14 +2122,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2118,11 +2139,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2134,14 +2155,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2151,11 +2172,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2167,28 +2188,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2200,14 +2221,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2217,14 +2238,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2233,28 +2254,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2266,14 +2287,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2283,14 +2304,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2299,14 +2320,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2316,11 +2337,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2332,14 +2353,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2349,11 +2370,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2365,14 +2386,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2382,11 +2403,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2398,14 +2419,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2438,7 +2459,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2452,10 +2473,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2464,14 +2485,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2481,14 +2502,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2504,7 +2525,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2518,7 +2539,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2530,14 +2551,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2551,7 +2572,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>15</v>
@@ -2563,14 +2584,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2603,7 +2624,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2617,10 +2638,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2629,14 +2650,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2646,14 +2667,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2669,7 +2690,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2683,7 +2704,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>15</v>
@@ -2695,14 +2716,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2728,14 +2749,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2761,14 +2782,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2778,11 +2799,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>15</v>
@@ -2794,14 +2815,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2811,14 +2832,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2827,14 +2848,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2844,14 +2865,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2860,14 +2881,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2893,7 +2914,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2910,11 +2931,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2926,28 +2947,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2959,14 +2980,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2976,7 +2997,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2999,7 +3020,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3025,31 +3046,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3058,14 +3079,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3075,14 +3096,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3098,7 +3119,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3108,14 +3129,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3124,14 +3145,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3141,14 +3162,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3157,31 +3178,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3190,20 +3211,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3214,7 +3235,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3230,13 +3251,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3247,7 +3268,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3269,18 +3290,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3289,28 +3310,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>15</v>
@@ -3322,68 +3343,167 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>11</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>47</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>58</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>47</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>210</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="25.5" customHeight="1">
-      <c r="N70" s="13">
-        <v>3682.7150000000001</v>
-      </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>207</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>208</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>209</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>212</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>47</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>213</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="N73" s="13">
+        <v>3793.7950000000001</v>
+      </c>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>214</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>215</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>216</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3707,10 +3827,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
